--- a/POST-THESIS/1982/entity_creation/datasets_updated/Sabra_and_Shatila_massacre/locations_en.xlsx
+++ b/POST-THESIS/1982/entity_creation/datasets_updated/Sabra_and_Shatila_massacre/locations_en.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Beirut</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,48 +463,48 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>flagcountry,Lebanon</t>
+          <t>Lebanon</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Beirut</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bikfaya</t>
+          <t>Nahariyya</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -514,14 +514,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>flagcountry,Lebanon</t>
+          <t>ISR</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bsharri</t>
+          <t>Sabra</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,65 +531,65 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LBN</t>
+          <t>Lebanon</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Saliha</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>Geopolitical entity</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Mandatory Palestine</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Damour</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LBN</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ehden</t>
+          <t>Israeli occupation of Southern Lebanon</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>flagcountry,Lebanon</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Southern Lebanon</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -606,7 +606,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Keserwan District</t>
+          <t>Beirut</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -616,109 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Lebanon,Flag</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
           <t>Lebanon</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Matn District</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Lebanon,Flag</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Nahariyya</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ISR</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Safra</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Lebanon,Flag</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Zahlé</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Lebanon,Flag</t>
         </is>
       </c>
     </row>
